--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131137.050869146</v>
+        <v>3132897.581171932</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8348468.47136591</v>
+        <v>8348468.471365909</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>123.7911484401897</v>
       </c>
       <c r="D2" t="n">
-        <v>109.8280576942318</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.317049263441</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>28.24679925476138</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>83.47975359624724</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>220.7993414426854</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.67731766039428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>28.33708868093456</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.1845637256568</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>123.5838339821185</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.7993414426854</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>207.5730834291121</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>71.48928363628548</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>18.47335059662224</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256483</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>157.9044589736485</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.7667673447337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>47.4973478028577</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321693</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>284.1791610783666</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>137.3676443337302</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881261</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799757</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799757</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656002</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471538</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471538</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471538</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471538</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799757</v>
+        <v>166.0479880037681</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4409,13 +4409,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699348</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267552</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528709</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473381</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823842</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.177417354891</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2412344269841</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.413376528795</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="X4" t="n">
-        <v>831.8258821851307</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.8258821851307</v>
+        <v>719.2759572512193</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079211</v>
+        <v>300.438579740743</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079211</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
         <v>300.438579740743</v>
@@ -4567,10 +4567,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515906</v>
@@ -4579,10 +4579,10 @@
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>833.1938928750992</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946894</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946894</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="Y5" t="n">
-        <v>833.1938928750992</v>
+        <v>566.8162363079211</v>
       </c>
     </row>
     <row r="6">
@@ -4664,28 +4664,28 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
         <v>1026.232198106091</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.2412344269841</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
         <v>481.2412344269841</v>
@@ -4728,19 +4728,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>930.0233644685316</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>930.0233644685316</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="X7" t="n">
-        <v>702.0338135705142</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="Y7" t="n">
-        <v>481.2412344269841</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.090843722208</v>
+        <v>1856.034114738133</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.128326781796</v>
+        <v>1487.071597797721</v>
       </c>
       <c r="D8" t="n">
-        <v>931.862628175046</v>
+        <v>1128.805899190971</v>
       </c>
       <c r="E8" t="n">
-        <v>546.0743755768017</v>
+        <v>743.0176465927264</v>
       </c>
       <c r="F8" t="n">
-        <v>135.0884707871941</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>123.4226528192654</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685577</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607426</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762142</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762142</v>
+        <v>2229.499872999213</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762142</v>
+        <v>1856.034114738133</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.69068378633</v>
+        <v>1856.034114738133</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010782</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199512</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586999</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532444</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801294</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763176</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530445389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J9" t="n">
-        <v>167.3422431396327</v>
+        <v>238.3188829507235</v>
       </c>
       <c r="K9" t="n">
-        <v>613.759824133185</v>
+        <v>684.7364639442754</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666668</v>
+        <v>979.2724473777566</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040968</v>
+        <v>1342.338915852058</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513538</v>
+        <v>1729.423318324627</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500928</v>
+        <v>2061.310128312016</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930553</v>
+        <v>2308.34548674164</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685348</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751577</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791633</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.4853565861</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821146</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294915</v>
+        <v>358.6238022979846</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015846</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892489</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838017</v>
+        <v>76.63468308380146</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.02493603824</v>
+        <v>1278.471567206733</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.607766001279</v>
+        <v>989.0543971697718</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6182151032614</v>
+        <v>761.0648462717545</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8256359597312</v>
+        <v>540.2722671282244</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U16" t="n">
-        <v>1690.411422855592</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1435.726934649706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1146.309764612745</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>918.3202137147275</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.5276345711974</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5892,31 +5892,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6250,28 +6250,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="27">
@@ -6293,31 +6293,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,34 +6363,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6682,70 +6682,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6922,64 +6922,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.3728896106911</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446529</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658826</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39745977365011</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.3837121690888</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348496</v>
+        <v>20.98618304348511</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-2.330580173293129e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>178.2123075861795</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.9259388694752602</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.005313310877511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.32043864788571</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>28.15649395853862</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="14">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580801</v>
+        <v>390680.0076580787</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606923</v>
+        <v>507909.2320606937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>68999.154419114</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101792</v>
+        <v>95270.23779101763</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447207</v>
+        <v>141668.850744721</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680594</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680591</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.9762168059</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11776.97621680589</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680588</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680587</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680586</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680576</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567897</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276846.3004273888</v>
+        <v>-276846.300427389</v>
       </c>
       <c r="C6" t="n">
-        <v>403241.6801638041</v>
+        <v>403241.6801638044</v>
       </c>
       <c r="D6" t="n">
-        <v>93159.82265276814</v>
+        <v>93159.82265276939</v>
       </c>
       <c r="E6" t="n">
-        <v>85097.15737299358</v>
+        <v>85409.79870191331</v>
       </c>
       <c r="F6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626066</v>
       </c>
       <c r="G6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626072</v>
       </c>
       <c r="H6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.030762607</v>
       </c>
       <c r="I6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="J6" t="n">
-        <v>524007.2350145716</v>
+        <v>524319.8763434928</v>
       </c>
       <c r="K6" t="n">
-        <v>593006.3894336855</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="L6" t="n">
-        <v>497736.1516426677</v>
+        <v>498048.7929715893</v>
       </c>
       <c r="M6" t="n">
-        <v>460288.4137382167</v>
+        <v>460601.0550671378</v>
       </c>
       <c r="N6" t="n">
-        <v>593006.3894336855</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="O6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="P6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.030762607</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856971</v>
+        <v>640.1406900856958</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933055</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788902</v>
+        <v>434.2730407788913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>241.4817433308179</v>
       </c>
       <c r="D2" t="n">
-        <v>244.8549839264512</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.2161343864263</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>223.4481839061582</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.35222658569006</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>4.910313946351778</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>108.3072476105184</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.5606209956593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>166.5038989039422</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778207</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5538093417095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>65.72365689390563</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>199.3029623125993</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>229.5441905840149</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164530145</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77644916452553</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9.34236212497936</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>56.37087597909434</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.604658557802082e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29568,13 +29568,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29757,16 +29757,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127284</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966409</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958079</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.3040282149262</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.458498396198</v>
+        <v>254.7649228294374</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
